--- a/T1/data2.xlsx
+++ b/T1/data2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almei\Documents\GitHub\F1014B\T1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gatuno7000\Documents\GitHub\F1014B\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD5DF0-F0F9-4245-A0F5-E8C90BB298B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F953E-6125-41EE-AC55-A1EBD51A52F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -388,12 +388,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -421,7 +421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-1</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
